--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed4/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.04260000000001</v>
+        <v>-12.12710000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.1632</v>
+        <v>5.031599999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.78010000000001</v>
+        <v>-21.87490000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.425299999999997</v>
+        <v>5.575999999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.50830000000001</v>
+        <v>-22.48559999999999</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.665899999999998</v>
+        <v>5.732399999999997</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.48279999999999</v>
+        <v>-14.08350000000001</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.42529999999998</v>
+        <v>-21.48749999999997</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.46980000000001</v>
+        <v>-22.28560000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.845300000000003</v>
+        <v>8.974300000000003</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.82269999999998</v>
+        <v>-19.85399999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.21159999999998</v>
+        <v>-21.20369999999997</v>
       </c>
       <c r="B26" t="n">
-        <v>4.073300000000002</v>
+        <v>3.961200000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.27489999999997</v>
+        <v>-21.35269999999997</v>
       </c>
       <c r="B27" t="n">
-        <v>5.130600000000005</v>
+        <v>5.2567</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.09559999999999</v>
+        <v>-13.0171</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.71449999999999</v>
+        <v>-21.72130000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>5.346900000000001</v>
+        <v>5.534199999999998</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.8816</v>
+        <v>-11.51699999999999</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.8954</v>
+        <v>-19.7831</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.99550000000001</v>
+        <v>-12.6315</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.6704</v>
+        <v>-19.54799999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.513300000000005</v>
+        <v>8.515400000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.759800000000003</v>
+        <v>4.597199999999998</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.6104</v>
+        <v>-12.0297</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.71429999999999</v>
+        <v>-14.0745</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.78519999999999</v>
+        <v>-13.50979999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.99779999999999</v>
+        <v>-21.86139999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.56659999999999</v>
+        <v>-13.18189999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1230,10 +1230,10 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.143899999999999</v>
+        <v>5.5281</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.30409999999999</v>
+        <v>-12.06889999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.085500000000004</v>
+        <v>5.956300000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9373</v>
+        <v>-11.82129999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.447600000000002</v>
+        <v>5.553099999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.072</v>
+        <v>-13.1545</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.64410000000001</v>
+        <v>-22.4729</v>
       </c>
       <c r="B55" t="n">
-        <v>4.710399999999997</v>
+        <v>4.572099999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.88599999999999</v>
+        <v>-22.0042</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.39449999999998</v>
+        <v>-13.28479999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.9964</v>
+        <v>-14.25040000000001</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.3905</v>
+        <v>-11.19950000000001</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.93829999999999</v>
+        <v>-10.91959999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.67049999999999</v>
+        <v>-21.63660000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>5.445499999999996</v>
+        <v>5.671999999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.947800000000004</v>
+        <v>5.833200000000006</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.0608</v>
+        <v>-11.62849999999999</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-22.3898</v>
+        <v>-22.1645</v>
       </c>
       <c r="B76" t="n">
-        <v>4.675299999999994</v>
+        <v>5.144199999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.93449999999997</v>
+        <v>-19.85309999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,10 +1808,10 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.429600000000001</v>
+        <v>5.301699999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>-11.99409999999999</v>
+        <v>-11.75319999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.00880000000002</v>
+        <v>-21.97010000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.82959999999999</v>
+        <v>-21.91569999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.857100000000007</v>
+        <v>6.622400000000006</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.06339999999999</v>
+        <v>-11.84789999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.53799999999998</v>
+        <v>-20.49439999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>5.312399999999998</v>
+        <v>5.236899999999999</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-11.8562</v>
+        <v>-11.72790000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.71870000000002</v>
+        <v>-21.77060000000001</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.2683</v>
+        <v>-12.1234</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.1929</v>
+        <v>5.267799999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.588500000000005</v>
+        <v>8.697300000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
